--- a/data/trans_camb/P16B17-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B17-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B17-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B17-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -692,7 +692,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -843,22 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -999,7 +999,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1623,22 +1623,22 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1779,22 +1779,22 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1935,22 +1935,22 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
